--- a/biology/Zoologie/Capra_walie/Capra_walie.xlsx
+++ b/biology/Zoologie/Capra_walie/Capra_walie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bouquetin d'Abyssinie
 Le Bouquetin d'Abyssinie (Capra walie) est un animal apparenté au Bouquetin des Alpes (certains zoologues en font une simple sous-espèce de ce dernier, dénommée Capra ibex nubiana).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le seul caprin de l'Afrique subsaharienne, dont le maintien a été rendu possible par le climat tempéré des montagnes et plateaux éthiopiens. Mais il est menacé d'extinction, avec un effectif qui ne dépasse pas les 500 têtes, sous la pression du braconnage et de la mise en culture de son habitat.
 Toutefois, la population de l'espèce a augmenté dans les dernières décennies : elle était de 150 à 200 animaux dans les années 1960. La création du Parc national du Simien en 1969 a contribué à sa survie.
